--- a/Aidatabase.xlsx
+++ b/Aidatabase.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lance\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE69B5B-0790-4D19-AD78-61A9798211B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="87">
   <si>
     <t>Municipalities</t>
   </si>
@@ -73,9 +82,6 @@
     <t>Farmer's, Empanada</t>
   </si>
   <si>
-    <t>The Batac empanada festival has already become an annual activity since Batac became a city in. The festival highlights the making of empanada through a dance parade and colorful floats well represented by clustered barangays composed of men, women and youngsters including local officials here</t>
-  </si>
-  <si>
     <t>Burgos</t>
   </si>
   <si>
@@ -227,20 +233,69 @@
   </si>
   <si>
     <t>Siwawer has become the trademark of the town of Vintar. It is a specie of aves that can be seen soaring and scouring at Vintar’s clear blue skies. This hawk is characterized by might and power as it spreads out its wings to go into unfamiliarterritories. It is said that locals have been characterized with these traits and so this has become the main reason for celebration of the Siwawer Festival. This festival had been conceptualized and initiated with the aim of promoting the arts and culture, developing tourism, preserving the natural environment and conserving the heritage of Vintar</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Agricultural &amp; Product</t>
+  </si>
+  <si>
+    <t>Cultural &amp; Heritage</t>
+  </si>
+  <si>
+    <t>Religious</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>May, December</t>
+  </si>
+  <si>
+    <t>February or March</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -251,36 +306,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -470,24 +532,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="31.75"/>
-    <col customWidth="1" min="3" max="3" width="15.63"/>
+    <col min="2" max="2" width="31.77734375" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,10 +564,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -506,10 +581,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -517,10 +598,16 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -528,10 +615,16 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -539,10 +632,16 @@
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -550,10 +649,16 @@
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -561,197 +666,305 @@
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="1" t="s">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="1" t="s">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="1" t="s">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>71</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>